--- a/Nasional/Old_backup/06_Nasional_Dead_30032020.xlsx
+++ b/Nasional/Old_backup/06_Nasional_Dead_30032020.xlsx
@@ -1219,10 +1219,7 @@
       </c>
       <c r="AB17" s="5"/>
       <c r="AC17" s="5"/>
-      <c r="AD17" s="5">
-        <f>sum(AC12:AC16)</f>
-        <v>20</v>
-      </c>
+      <c r="AD17" s="5"/>
       <c r="AE17" s="5"/>
       <c r="AF17" s="5"/>
       <c r="AG17" s="5"/>
